--- a/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Alcam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Alcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Alcam</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H2">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="N2">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="O2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="P2">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="Q2">
-        <v>3.120946971248851</v>
+        <v>10.72418440054</v>
       </c>
       <c r="R2">
-        <v>3.120946971248851</v>
+        <v>96.51765960485999</v>
       </c>
       <c r="S2">
-        <v>0.001835801290619092</v>
+        <v>0.005591217971378116</v>
       </c>
       <c r="T2">
-        <v>0.001835801290619092</v>
+        <v>0.005591217971378118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H3">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="N3">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="O3">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="P3">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="Q3">
-        <v>11.17809956725459</v>
+        <v>12.03240979761</v>
       </c>
       <c r="R3">
-        <v>11.17809956725459</v>
+        <v>108.29168817849</v>
       </c>
       <c r="S3">
-        <v>0.006575174074176364</v>
+        <v>0.006273281341189507</v>
       </c>
       <c r="T3">
-        <v>0.006575174074176364</v>
+        <v>0.006273281341189508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H4">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="N4">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="O4">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="P4">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="Q4">
-        <v>290.4912506429372</v>
+        <v>305.4485925935749</v>
       </c>
       <c r="R4">
-        <v>290.4912506429372</v>
+        <v>2749.037333342174</v>
       </c>
       <c r="S4">
-        <v>0.1708725645634613</v>
+        <v>0.1592503071986858</v>
       </c>
       <c r="T4">
-        <v>0.1708725645634613</v>
+        <v>0.1592503071986859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H5">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I5">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J5">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="N5">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="O5">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="P5">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="Q5">
-        <v>242.5453627041544</v>
+        <v>281.6312404919005</v>
       </c>
       <c r="R5">
-        <v>242.5453627041544</v>
+        <v>2534.681164427105</v>
       </c>
       <c r="S5">
-        <v>0.1426698671870701</v>
+        <v>0.1468327654884913</v>
       </c>
       <c r="T5">
-        <v>0.1426698671870701</v>
+        <v>0.1468327654884914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H6">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I6">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J6">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="N6">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="O6">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="P6">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="Q6">
-        <v>3.907943976861716</v>
+        <v>4.381278716233333</v>
       </c>
       <c r="R6">
-        <v>3.907943976861716</v>
+        <v>39.4315084461</v>
       </c>
       <c r="S6">
-        <v>0.002298728130429936</v>
+        <v>0.0022842468369517</v>
       </c>
       <c r="T6">
-        <v>0.002298728130429936</v>
+        <v>0.002284246836951701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H7">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="N7">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="O7">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="P7">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="Q7">
-        <v>3.215598732161279</v>
+        <v>0.238167248176</v>
       </c>
       <c r="R7">
-        <v>3.215598732161279</v>
+        <v>2.143505233584</v>
       </c>
       <c r="S7">
-        <v>0.001891477284618078</v>
+        <v>0.0001241721466602411</v>
       </c>
       <c r="T7">
-        <v>0.001891477284618078</v>
+        <v>0.0001241721466602412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H8">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J8">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="N8">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="O8">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="P8">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="Q8">
-        <v>11.51710782899117</v>
+        <v>0.267220874184</v>
       </c>
       <c r="R8">
-        <v>11.51710782899117</v>
+        <v>2.404987867656</v>
       </c>
       <c r="S8">
-        <v>0.006774585281787336</v>
+        <v>0.0001393197000594021</v>
       </c>
       <c r="T8">
-        <v>0.006774585281787336</v>
+        <v>0.0001393197000594021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H9">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J9">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="N9">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="O9">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="P9">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="Q9">
-        <v>299.3012396162537</v>
+        <v>6.783532251979999</v>
       </c>
       <c r="R9">
-        <v>299.3012396162537</v>
+        <v>61.05179026782</v>
       </c>
       <c r="S9">
-        <v>0.1760547702454381</v>
+        <v>0.003536698551619816</v>
       </c>
       <c r="T9">
-        <v>0.1760547702454381</v>
+        <v>0.003536698551619817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H10">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I10">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J10">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="N10">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="O10">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="P10">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="Q10">
-        <v>249.9012536861487</v>
+        <v>6.254586366956889</v>
       </c>
       <c r="R10">
-        <v>249.9012536861487</v>
+        <v>56.291277302612</v>
       </c>
       <c r="S10">
-        <v>0.1469967443441642</v>
+        <v>0.003260924504124064</v>
       </c>
       <c r="T10">
-        <v>0.1469967443441642</v>
+        <v>0.003260924504124065</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H11">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I11">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J11">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="N11">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="O11">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="P11">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="Q11">
-        <v>4.02646370256185</v>
+        <v>0.09730130109333333</v>
       </c>
       <c r="R11">
-        <v>4.02646370256185</v>
+        <v>0.87571170984</v>
       </c>
       <c r="S11">
-        <v>0.002368443722334743</v>
+        <v>5.07295252480109E-05</v>
       </c>
       <c r="T11">
-        <v>0.002368443722334743</v>
+        <v>5.072952524801091E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H12">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I12">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J12">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="N12">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="O12">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="P12">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="Q12">
-        <v>2.69451748907546</v>
+        <v>10.828566764028</v>
       </c>
       <c r="R12">
-        <v>2.69451748907546</v>
+        <v>97.45710087625199</v>
       </c>
       <c r="S12">
-        <v>0.001584967232577187</v>
+        <v>0.005645639317079673</v>
       </c>
       <c r="T12">
-        <v>0.001584967232577187</v>
+        <v>0.005645639317079674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H13">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I13">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J13">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="N13">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="O13">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="P13">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="Q13">
-        <v>9.650783898626111</v>
+        <v>12.149525591802</v>
       </c>
       <c r="R13">
-        <v>9.650783898626111</v>
+        <v>109.345730326218</v>
       </c>
       <c r="S13">
-        <v>0.005676777497278115</v>
+        <v>0.006334341456230569</v>
       </c>
       <c r="T13">
-        <v>0.005676777497278115</v>
+        <v>0.00633434145623057</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H14">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I14">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J14">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="N14">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="O14">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="P14">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="Q14">
-        <v>250.8000816712325</v>
+        <v>308.4216341628149</v>
       </c>
       <c r="R14">
-        <v>250.8000816712325</v>
+        <v>2775.794707465335</v>
       </c>
       <c r="S14">
-        <v>0.1475254523261525</v>
+        <v>0.1608003480065212</v>
       </c>
       <c r="T14">
-        <v>0.1475254523261525</v>
+        <v>0.1608003480065212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H15">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I15">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J15">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="N15">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="O15">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="P15">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="Q15">
-        <v>209.405263120821</v>
+        <v>284.372459163329</v>
       </c>
       <c r="R15">
-        <v>209.405263120821</v>
+        <v>2559.352132469961</v>
       </c>
       <c r="S15">
-        <v>0.1231762205000891</v>
+        <v>0.1482619418740071</v>
       </c>
       <c r="T15">
-        <v>0.1231762205000891</v>
+        <v>0.1482619418740071</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H16">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I16">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J16">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.555711735734343</v>
+        <v>0.59762</v>
       </c>
       <c r="N16">
-        <v>0.555711735734343</v>
+        <v>1.79286</v>
       </c>
       <c r="O16">
-        <v>0.007089323031559028</v>
+        <v>0.00713310390344615</v>
       </c>
       <c r="P16">
-        <v>0.007089323031559028</v>
+        <v>0.007133103903446152</v>
       </c>
       <c r="Q16">
-        <v>3.373983438035603</v>
+        <v>4.42392328578</v>
       </c>
       <c r="R16">
-        <v>3.373983438035603</v>
+        <v>39.81530957202</v>
       </c>
       <c r="S16">
-        <v>0.001984642227866716</v>
+        <v>0.002306480237154983</v>
       </c>
       <c r="T16">
-        <v>0.001984642227866716</v>
+        <v>0.002306480237154983</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H17">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I17">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J17">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.443800338182</v>
+        <v>1.462812</v>
       </c>
       <c r="N17">
-        <v>0.443800338182</v>
+        <v>4.388436</v>
       </c>
       <c r="O17">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="P17">
-        <v>0.005661647499183632</v>
+        <v>0.01745990761220821</v>
       </c>
       <c r="Q17">
-        <v>0.5939990106774696</v>
+        <v>9.335466753963999</v>
       </c>
       <c r="R17">
-        <v>0.5939990106774696</v>
+        <v>84.01920078567599</v>
       </c>
       <c r="S17">
-        <v>0.0003494016913692743</v>
+        <v>0.004867188733097333</v>
       </c>
       <c r="T17">
-        <v>0.0003494016913692743</v>
+        <v>0.004867188733097333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H18">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I18">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J18">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.58953177156822</v>
+        <v>1.641258</v>
       </c>
       <c r="N18">
-        <v>1.58953177156822</v>
+        <v>4.923774</v>
       </c>
       <c r="O18">
-        <v>0.02027796692593224</v>
+        <v>0.01958981266751819</v>
       </c>
       <c r="P18">
-        <v>0.02027796692593224</v>
+        <v>0.0195898126675182</v>
       </c>
       <c r="Q18">
-        <v>2.127488914541397</v>
+        <v>10.474284797826</v>
       </c>
       <c r="R18">
-        <v>2.127488914541397</v>
+        <v>94.268563180434</v>
       </c>
       <c r="S18">
-        <v>0.001251430072690424</v>
+        <v>0.005460928981787039</v>
       </c>
       <c r="T18">
-        <v>0.001251430072690424</v>
+        <v>0.005460928981787039</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H19">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I19">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J19">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>41.3080121071907</v>
+        <v>41.66413499999999</v>
       </c>
       <c r="N19">
-        <v>41.3080121071907</v>
+        <v>124.992405</v>
       </c>
       <c r="O19">
-        <v>0.5269743696026975</v>
+        <v>0.4972969512436119</v>
       </c>
       <c r="P19">
-        <v>0.5269743696026975</v>
+        <v>0.497296951243612</v>
       </c>
       <c r="Q19">
-        <v>55.28819203977659</v>
+        <v>265.894829359595</v>
       </c>
       <c r="R19">
-        <v>55.28819203977659</v>
+        <v>2393.053464236355</v>
       </c>
       <c r="S19">
-        <v>0.03252158246764553</v>
+        <v>0.1386283462579239</v>
       </c>
       <c r="T19">
-        <v>0.03252158246764553</v>
+        <v>0.1386283462579239</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.33843748995494</v>
+        <v>6.381863666666667</v>
       </c>
       <c r="H20">
-        <v>1.33843748995494</v>
+        <v>19.145591</v>
       </c>
       <c r="I20">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494569</v>
       </c>
       <c r="J20">
-        <v>0.0617137840919371</v>
+        <v>0.2787637163494568</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>34.4900810504661</v>
+        <v>38.41537433333333</v>
       </c>
       <c r="N20">
-        <v>34.4900810504661</v>
+        <v>115.246123</v>
       </c>
       <c r="O20">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732155</v>
       </c>
       <c r="P20">
-        <v>0.4399966929406277</v>
+        <v>0.4585202245732156</v>
       </c>
       <c r="Q20">
-        <v>46.1628175095283</v>
+        <v>245.1616816992992</v>
       </c>
       <c r="R20">
-        <v>46.1628175095283</v>
+        <v>2206.455135293693</v>
       </c>
       <c r="S20">
-        <v>0.02715386090930424</v>
+        <v>0.1278188018234171</v>
       </c>
       <c r="T20">
-        <v>0.02715386090930424</v>
+        <v>0.1278188018234171</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H21">
+        <v>19.145591</v>
+      </c>
+      <c r="I21">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J21">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.59762</v>
+      </c>
+      <c r="N21">
+        <v>1.79286</v>
+      </c>
+      <c r="O21">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="P21">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="Q21">
+        <v>3.813929364473334</v>
+      </c>
+      <c r="R21">
+        <v>34.32536428026</v>
+      </c>
+      <c r="S21">
+        <v>0.001988450553231466</v>
+      </c>
+      <c r="T21">
+        <v>0.001988450553231466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H22">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J22">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.462812</v>
+      </c>
+      <c r="N22">
+        <v>4.388436</v>
+      </c>
+      <c r="O22">
+        <v>0.01745990761220821</v>
+      </c>
+      <c r="P22">
+        <v>0.01745990761220821</v>
+      </c>
+      <c r="Q22">
+        <v>2.362430652711999</v>
+      </c>
+      <c r="R22">
+        <v>21.26187587440799</v>
+      </c>
+      <c r="S22">
+        <v>0.001231689443992846</v>
+      </c>
+      <c r="T22">
+        <v>0.001231689443992846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H23">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J23">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.641258</v>
+      </c>
+      <c r="N23">
+        <v>4.923774</v>
+      </c>
+      <c r="O23">
+        <v>0.01958981266751819</v>
+      </c>
+      <c r="P23">
+        <v>0.0195898126675182</v>
+      </c>
+      <c r="Q23">
+        <v>2.650619634108</v>
+      </c>
+      <c r="R23">
+        <v>23.85557670697199</v>
+      </c>
+      <c r="S23">
+        <v>0.001381941188251676</v>
+      </c>
+      <c r="T23">
+        <v>0.001381941188251676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H24">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J24">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>41.66413499999999</v>
+      </c>
+      <c r="N24">
+        <v>124.992405</v>
+      </c>
+      <c r="O24">
+        <v>0.4972969512436119</v>
+      </c>
+      <c r="P24">
+        <v>0.497296951243612</v>
+      </c>
+      <c r="Q24">
+        <v>67.28727248800999</v>
+      </c>
+      <c r="R24">
+        <v>605.5854523920899</v>
+      </c>
+      <c r="S24">
+        <v>0.03508125122886118</v>
+      </c>
+      <c r="T24">
+        <v>0.03508125122886119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="H21">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="I21">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="J21">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.555711735734343</v>
-      </c>
-      <c r="N21">
-        <v>0.555711735734343</v>
-      </c>
-      <c r="O21">
-        <v>0.007089323031559028</v>
-      </c>
-      <c r="P21">
-        <v>0.007089323031559028</v>
-      </c>
-      <c r="Q21">
-        <v>0.7437854207147769</v>
-      </c>
-      <c r="R21">
-        <v>0.7437854207147769</v>
-      </c>
-      <c r="S21">
-        <v>0.0004375089509276308</v>
-      </c>
-      <c r="T21">
-        <v>0.0004375089509276308</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H25">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J25">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>38.41537433333333</v>
+      </c>
+      <c r="N25">
+        <v>115.246123</v>
+      </c>
+      <c r="O25">
+        <v>0.4585202245732155</v>
+      </c>
+      <c r="P25">
+        <v>0.4585202245732156</v>
+      </c>
+      <c r="Q25">
+        <v>62.04054783558821</v>
+      </c>
+      <c r="R25">
+        <v>558.3649305202939</v>
+      </c>
+      <c r="S25">
+        <v>0.03234579088317596</v>
+      </c>
+      <c r="T25">
+        <v>0.03234579088317596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H26">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J26">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.59762</v>
+      </c>
+      <c r="N26">
+        <v>1.79286</v>
+      </c>
+      <c r="O26">
+        <v>0.00713310390344615</v>
+      </c>
+      <c r="P26">
+        <v>0.007133103903446152</v>
+      </c>
+      <c r="Q26">
+        <v>0.9651519174533333</v>
+      </c>
+      <c r="R26">
+        <v>8.686367257079999</v>
+      </c>
+      <c r="S26">
+        <v>0.0005031967508599907</v>
+      </c>
+      <c r="T26">
+        <v>0.0005031967508599909</v>
       </c>
     </row>
   </sheetData>
